--- a/Graph.xlsx
+++ b/Graph.xlsx
@@ -98,7 +98,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CENACE Score Graph</a:t>
+              <a:t>CENACE's Score Graph</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4759,11 +4759,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1231463392"/>
-        <c:axId val="-1231469920"/>
+        <c:axId val="93886288"/>
+        <c:axId val="93887920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1231463392"/>
+        <c:axId val="93886288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4805,7 +4805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1231469920"/>
+        <c:crossAx val="93887920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4813,7 +4813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1231469920"/>
+        <c:axId val="93887920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4850,7 +4850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1231463392"/>
+        <c:crossAx val="93886288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
